--- a/HeatingElementCostEstimate.xlsx
+++ b/HeatingElementCostEstimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C49E951-C456-4053-A007-2051053F441E}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62240433-22D5-4C60-B238-A991E2F310DF}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CB1A8A0D-9D97-4379-8165-4BCA07248889}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t xml:space="preserve">Cost estimation for heating element </t>
   </si>
@@ -134,9 +134,6 @@
     <t>mm</t>
   </si>
   <si>
-    <t>coil weight</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -161,21 +158,12 @@
     <t>Total of heating element</t>
   </si>
   <si>
-    <t>heating plate diameters</t>
-  </si>
-  <si>
     <t>resistivity</t>
   </si>
   <si>
-    <t>ohm/m</t>
-  </si>
-  <si>
     <t xml:space="preserve">coil length </t>
   </si>
   <si>
-    <t>power output</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -191,7 +179,73 @@
     <t>m^3</t>
   </si>
   <si>
-    <t xml:space="preserve">test </t>
+    <t>resistance</t>
+  </si>
+  <si>
+    <t>ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voltage </t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>3 batteries @ 3.7V nom</t>
+  </si>
+  <si>
+    <t>ohm* m</t>
+  </si>
+  <si>
+    <t>R = (V^2)/P</t>
+  </si>
+  <si>
+    <t>input variable</t>
+  </si>
+  <si>
+    <t>heating plate area</t>
+  </si>
+  <si>
+    <t>pi * (nalgene d)^2</t>
+  </si>
+  <si>
+    <t>heating plat thickness</t>
+  </si>
+  <si>
+    <t>heating plate volume</t>
+  </si>
+  <si>
+    <t>alum density</t>
+  </si>
+  <si>
+    <t>g/cm^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alum density </t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>heating plate mass</t>
+  </si>
+  <si>
+    <t>coil mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg </t>
+  </si>
+  <si>
+    <t>Heating plate cost</t>
+  </si>
+  <si>
+    <t>4 contacts, 2 on coil and 2 on wires</t>
   </si>
 </sst>
 </file>
@@ -223,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -240,21 +294,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,67 +741,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A474961C-9B26-4F8E-9E1E-C6F56EBB70C1}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="49.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="I2" t="s">
+      <c r="B2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -664,24 +817,24 @@
         <v>22</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="H4">
+      <c r="F4" s="11">
         <v>0.11</v>
       </c>
-      <c r="I4">
+      <c r="G4" s="9">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="H4" s="9">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="I4" s="9">
         <v>25</v>
       </c>
-      <c r="L4">
-        <f>K4*J4</f>
+      <c r="J4" s="10">
+        <f>I4*H4</f>
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -697,24 +850,24 @@
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5">
+      <c r="F5" s="11">
         <v>0.11</v>
       </c>
-      <c r="I5">
+      <c r="G5" s="9">
         <v>14</v>
       </c>
-      <c r="J5">
+      <c r="H5" s="9">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="I5" s="9">
         <v>25</v>
       </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L8" si="0">K5*J5</f>
+      <c r="J5" s="10">
+        <f t="shared" ref="J5:J8" si="0">I5*H5</f>
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -722,33 +875,33 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <f>AVERAGE(H4:H8)</f>
+        <f>AVERAGE(F4:F8)</f>
         <v>0.33799999999999997</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="11">
         <v>0.11</v>
       </c>
-      <c r="I6">
+      <c r="G6" s="9">
         <v>14</v>
       </c>
-      <c r="J6">
+      <c r="H6" s="9">
         <v>20</v>
       </c>
-      <c r="K6">
+      <c r="I6" s="9">
         <v>25</v>
       </c>
-      <c r="L6">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -762,24 +915,24 @@
         <v>23</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="H7">
+      <c r="F7" s="11">
         <v>0.68</v>
       </c>
-      <c r="I7">
+      <c r="G7" s="9">
         <v>12</v>
       </c>
-      <c r="J7">
+      <c r="H7" s="9">
         <v>25</v>
       </c>
-      <c r="K7">
+      <c r="I7" s="9">
         <v>25</v>
       </c>
-      <c r="L7">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -792,35 +945,35 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="F8" s="12">
         <v>0.68</v>
       </c>
-      <c r="I8">
+      <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="H8" s="2">
         <v>30</v>
       </c>
-      <c r="K8">
+      <c r="I8" s="2">
         <v>25</v>
       </c>
-      <c r="L8">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -835,164 +988,276 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <f>C10/1000</f>
         <v>0.27960150999999994</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>11.1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <f>(C12)^2/C14</f>
+        <v>0.12321</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>1.04E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C17">
+        <f>((C11*C16))/C15</f>
+        <v>2.3600809220030837E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C12">
-        <v>5784</v>
-      </c>
-      <c r="E12">
-        <f>(1.04*(0.2796/(3.14159*(0.004^2))))</f>
-        <v>5784.9687578582834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C18">
+        <f>C17*C11</f>
+        <v>6.5988218951425435E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <f>C18*8400</f>
+        <v>5.5430103919197364E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <f>C19*C5</f>
+        <v>0.1662903117575921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <f>(3.14159*(0.089/2)^2)</f>
+        <v>6.2211335974999993E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C13">
-        <v>1.04</v>
-      </c>
-      <c r="E13">
-        <f>(3.14159*(0.004^2))</f>
-        <v>5.0265439999999998E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <f>(C11*C13)/C12</f>
-        <v>5.0274130428769015E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <f>C14*C11</f>
-        <v>1.405672278182076E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <f>C15*8400</f>
-        <v>0.11807647136729439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <f>C23*C22</f>
+        <v>6.2211335974999996E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <f>C25*1000</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <f>C24*C26</f>
+        <v>0.16797060713249998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C28">
+        <f>C27*4.5</f>
+        <v>0.75586773209624991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="C17">
-        <f>C16*C5</f>
-        <v>3.5422941410188318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
         <f>4*C6</f>
         <v>1.3519999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <f>C32*C7</f>
+        <v>2.2420000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21">
-        <f>C20*C7</f>
-        <v>2.2420000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
         <f>1*C8</f>
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <f>SUM(C13:C19,C21:C22)</f>
-        <v>12.594434943239339</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <f>C34+C33+C30+C28+C20</f>
+        <v>8.8161580438538429</v>
       </c>
     </row>
   </sheetData>

--- a/HeatingElementCostEstimate.xlsx
+++ b/HeatingElementCostEstimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62240433-22D5-4C60-B238-A991E2F310DF}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AA57D1-5B8D-46A4-8E93-AB6C76223A12}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CB1A8A0D-9D97-4379-8165-4BCA07248889}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t xml:space="preserve">Cost estimation for heating element </t>
   </si>
@@ -246,13 +246,16 @@
   </si>
   <si>
     <t>4 contacts, 2 on coil and 2 on wires</t>
+  </si>
+  <si>
+    <t>Percentage of cost for coil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +267,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,9 +391,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -401,15 +412,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A474961C-9B26-4F8E-9E1E-C6F56EBB70C1}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,16 +802,16 @@
       <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -817,19 +829,19 @@
         <v>22</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0.11</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4">
         <v>16</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f>I4*H4</f>
         <v>250</v>
       </c>
@@ -850,19 +862,19 @@
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.11</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5">
         <v>14</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5">
         <v>25</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" ref="J5:J8" si="0">I5*H5</f>
         <v>375</v>
       </c>
@@ -884,19 +896,19 @@
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0.11</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6">
         <v>14</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6">
         <v>20</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6">
         <v>25</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -915,19 +927,19 @@
         <v>23</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0.68</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7">
         <v>25</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7">
         <v>25</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
@@ -948,7 +960,7 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0.68</v>
       </c>
       <c r="G8" s="2">
@@ -960,7 +972,7 @@
       <c r="I8" s="2">
         <v>25</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
@@ -1258,6 +1270,18 @@
       <c r="C37">
         <f>C34+C33+C30+C28+C20</f>
         <v>8.8161580438538429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="13">
+        <f>C20/C37</f>
+        <v>1.8861993050762159E-2</v>
       </c>
     </row>
   </sheetData>

--- a/HeatingElementCostEstimate.xlsx
+++ b/HeatingElementCostEstimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AA57D1-5B8D-46A4-8E93-AB6C76223A12}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{2AB1BE43-61F4-4C7B-8CB2-E9B8FC65C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D789211-A44A-4B2C-AB65-966025513116}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CB1A8A0D-9D97-4379-8165-4BCA07248889}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t xml:space="preserve">Cost estimation for heating element </t>
   </si>
@@ -119,9 +119,6 @@
     <t>Coil length</t>
   </si>
   <si>
-    <t>2 * pi * (nalgene d)/2</t>
-  </si>
-  <si>
     <t>Density (g/cm3) - 8.4</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>coil volume</t>
   </si>
   <si>
-    <t>mm</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -152,18 +146,12 @@
     <t>wire cost</t>
   </si>
   <si>
-    <t>controler cost</t>
-  </si>
-  <si>
     <t>Total of heating element</t>
   </si>
   <si>
     <t>resistivity</t>
   </si>
   <si>
-    <t xml:space="preserve">coil length </t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -215,24 +203,12 @@
     <t>pi * (nalgene d)^2</t>
   </si>
   <si>
-    <t>heating plat thickness</t>
-  </si>
-  <si>
     <t>heating plate volume</t>
   </si>
   <si>
     <t>alum density</t>
   </si>
   <si>
-    <t>g/cm^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alum density </t>
-  </si>
-  <si>
-    <t>kg/m^3</t>
-  </si>
-  <si>
     <t>heating plate mass</t>
   </si>
   <si>
@@ -249,6 +225,21 @@
   </si>
   <si>
     <t>Percentage of cost for coil</t>
+  </si>
+  <si>
+    <t>(2 * pi * (nalgene d)/2)/1000 mm/m</t>
+  </si>
+  <si>
+    <t>heating plate thickness</t>
+  </si>
+  <si>
+    <t>controller cost</t>
+  </si>
+  <si>
+    <t>kg/cm^3</t>
+  </si>
+  <si>
+    <t>g/cm^3*1000 = kg/m^3</t>
   </si>
 </sst>
 </file>
@@ -753,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A474961C-9B26-4F8E-9E1E-C6F56EBB70C1}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -860,7 +851,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10">
         <v>0.11</v>
@@ -985,85 +976,84 @@
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <f>2*3.14159*(89/2)</f>
-        <v>279.60150999999996</v>
+        <f>(2*3.14159*(89/2))/1000</f>
+        <v>0.27960150999999994</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <f>C10/1000</f>
-        <v>0.27960150999999994</v>
+        <v>11.1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12">
-        <v>11.1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <f>(C11)^2/C13</f>
+        <v>0.12321</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <f>(C12)^2/C14</f>
-        <v>0.12321</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
+        <v>1.04E-6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1071,216 +1061,197 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>1.04E-6</v>
+        <f>((C10*C15))/C14</f>
+        <v>2.3600809220030837E-6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <f>((C11*C16))/C15</f>
-        <v>2.3600809220030837E-6</v>
+        <f>C16*C10</f>
+        <v>6.5988218951425435E-7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
       <c r="C18">
-        <f>C17*C11</f>
-        <v>6.5988218951425435E-7</v>
+        <f>C17*8400</f>
+        <v>5.5430103919197364E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19">
-        <f>C18*8400</f>
-        <v>5.5430103919197364E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <f>C19*C5</f>
+        <f>C18*C5</f>
         <v>0.1662903117575921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <f>(3.14159*(0.089/2)^2)</f>
+        <v>6.2211335974999993E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C22">
-        <f>(3.14159*(0.089/2)^2)</f>
-        <v>6.2211335974999993E-3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23">
-        <v>0.01</v>
+        <f>C22*C21</f>
+        <v>6.2211335974999996E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <f>C23*C22</f>
-        <v>6.2211335974999996E-5</v>
+        <f>2.7*1000</f>
+        <v>2700</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25">
-        <v>2.7</v>
+        <f>C23*C24</f>
+        <v>0.16797060713249998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <f>C25*1000</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27">
-        <f>C24*C26</f>
-        <v>0.16797060713249998</v>
+        <f>C25*4.5</f>
+        <v>0.75586773209624991</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <f>C27*4.5</f>
-        <v>0.75586773209624991</v>
+        <f>4*C6</f>
+        <v>1.3519999999999999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <f>4*C6</f>
-        <v>1.3519999999999999</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <f>C30*C7</f>
+        <v>2.2420000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <f>C32*C7</f>
-        <v>2.2420000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
         <f>1*C8</f>
         <v>4.3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37">
-        <f>C34+C33+C30+C28+C20</f>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <f>C32+C31+C28+C26+C19</f>
         <v>8.8161580438538429</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="13">
-        <f>C20/C37</f>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13">
+        <f>C19/C35</f>
         <v>1.8861993050762159E-2</v>
       </c>
     </row>
